--- a/medicine/Psychotrope/Billy_Goat_Tavern/Billy_Goat_Tavern.xlsx
+++ b/medicine/Psychotrope/Billy_Goat_Tavern/Billy_Goat_Tavern.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Billy Goat Tavern est une chaîne de tavernes située à Chicago, dans l'État de l'Illinois aux États-Unis. Fondée en 1934 par Billy Sianis, un immigrant grec, la chaîne s'est rendue célèbre principalement à travers les colonnes des journaux Chicago Sun-Times et Chicago Tribune. C'est par cette chaîne de restauration qu'est née la malédiction qui pèse sur l'équipe professionnelle de baseball des Cubs de Chicago.
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La première taverne a été ouverte en 1937 par William "Billy Goat" Sianis lorsque ce dernier a acheté la taverne de Lincoln, près du Chicago Stadium pour 205 $. Lorsque la convention nationale républicaine s'est tenue en ville en 1944, il a affiché une pancarte indiquant «Républicains interdits», ce qui a rempli l'endroit de républicains demandant à être servis. Sianis profita avantageusement de la publicité qui s'ensuivit.
 En 1964, il a déménagé à son emplacement actuel sur Michigan Avenue, rendu possible par le réseau des rues de Chicago à plusieurs niveaux. Située entre les bureaux du Chicago Tribune et de l'ancien Chicago Sun-Times Building a conduit au fait que la taverne ait été mentionnée à de nombreuses reprises dans les colonnes de ces célèbres journaux chicagoans, surtout dans celles du journaliste Mike Royko.
@@ -547,7 +561,9 @@
           <t>Malédiction des Cubs de Chicago</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La malédiction de Billy Goat est une superstition associée aux Cubs de Chicago, une équipe américaine de la Ligue nationale de baseball.
 La malédiction se serait abattue sur les Cubs le 6 octobre 1945, lorsque Billy Sianis, propriétaire de la chaîne de tavernes Billy Goat Tavern, se présenta au Wrigley Field pour assister à un match de Série mondiale en compagnie d'un bouc (billy goat en anglais) domestiquée. L'odeur de l'animal importunant les autres spectateurs, on demanda à Sianis de quitter le stade avec la bête. Furieux, l'homme maudit l'équipe en déclarant « Them Cubs, they aren't gonna win no more » (« Ces Cubs, ils ne gagneront plus jamais »).
